--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.396921333333334</v>
+        <v>5.723418666666667</v>
       </c>
       <c r="H2">
-        <v>22.190764</v>
+        <v>17.170256</v>
       </c>
       <c r="I2">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="J2">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N2">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P2">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q2">
-        <v>69.55348060189468</v>
+        <v>73.30964043481957</v>
       </c>
       <c r="R2">
-        <v>625.9813254170521</v>
+        <v>659.7867639133761</v>
       </c>
       <c r="S2">
-        <v>0.01232343473257564</v>
+        <v>0.01905568684779266</v>
       </c>
       <c r="T2">
-        <v>0.01232343473257563</v>
+        <v>0.01905568684779267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.396921333333334</v>
+        <v>5.723418666666667</v>
       </c>
       <c r="H3">
-        <v>22.190764</v>
+        <v>17.170256</v>
       </c>
       <c r="I3">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="J3">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N3">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P3">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q3">
-        <v>161.6281728017942</v>
+        <v>125.0609083949991</v>
       </c>
       <c r="R3">
-        <v>1454.653555216148</v>
+        <v>1125.548175554992</v>
       </c>
       <c r="S3">
-        <v>0.02863716123523673</v>
+        <v>0.03250761418471897</v>
       </c>
       <c r="T3">
-        <v>0.02863716123523673</v>
+        <v>0.03250761418471898</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.396921333333334</v>
+        <v>5.723418666666667</v>
       </c>
       <c r="H4">
-        <v>22.190764</v>
+        <v>17.170256</v>
       </c>
       <c r="I4">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="J4">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N4">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P4">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q4">
-        <v>109.1091658953316</v>
+        <v>62.08118395632534</v>
       </c>
       <c r="R4">
-        <v>981.9824930579841</v>
+        <v>558.7306556069281</v>
       </c>
       <c r="S4">
-        <v>0.01933188207119369</v>
+        <v>0.016137026366454</v>
       </c>
       <c r="T4">
-        <v>0.01933188207119369</v>
+        <v>0.016137026366454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.396921333333334</v>
+        <v>5.723418666666667</v>
       </c>
       <c r="H5">
-        <v>22.190764</v>
+        <v>17.170256</v>
       </c>
       <c r="I5">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="J5">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N5">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P5">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q5">
-        <v>110.373575902928</v>
+        <v>42.29338538673067</v>
       </c>
       <c r="R5">
-        <v>993.3621831263521</v>
+        <v>380.640468480576</v>
       </c>
       <c r="S5">
-        <v>0.01955590930993127</v>
+        <v>0.01099349966637896</v>
       </c>
       <c r="T5">
-        <v>0.01955590930993127</v>
+        <v>0.01099349966637896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.396921333333334</v>
+        <v>5.723418666666667</v>
       </c>
       <c r="H6">
-        <v>22.190764</v>
+        <v>17.170256</v>
       </c>
       <c r="I6">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="J6">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N6">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P6">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q6">
-        <v>51.48429596267067</v>
+        <v>41.15160151885512</v>
       </c>
       <c r="R6">
-        <v>463.358663664036</v>
+        <v>370.364413669696</v>
       </c>
       <c r="S6">
-        <v>0.009121949837134337</v>
+        <v>0.01069671092611167</v>
       </c>
       <c r="T6">
-        <v>0.009121949837134335</v>
+        <v>0.01069671092611167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.396921333333334</v>
+        <v>5.723418666666667</v>
       </c>
       <c r="H7">
-        <v>22.190764</v>
+        <v>17.170256</v>
       </c>
       <c r="I7">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="J7">
-        <v>0.1141918903485193</v>
+        <v>0.1110004735971144</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N7">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P7">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q7">
-        <v>142.3504766894898</v>
+        <v>83.13615886555735</v>
       </c>
       <c r="R7">
-        <v>1281.154290205408</v>
+        <v>748.2254297900161</v>
       </c>
       <c r="S7">
-        <v>0.02522155316244763</v>
+        <v>0.02160993560565814</v>
       </c>
       <c r="T7">
-        <v>0.02522155316244763</v>
+        <v>0.02160993560565814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>105.206055</v>
       </c>
       <c r="I8">
-        <v>0.5413819144108915</v>
+        <v>0.6801250913372558</v>
       </c>
       <c r="J8">
-        <v>0.5413819144108915</v>
+        <v>0.680125091337256</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N8">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O8">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P8">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q8">
-        <v>329.751932184235</v>
+        <v>449.1848032793367</v>
       </c>
       <c r="R8">
-        <v>2967.767389658115</v>
+        <v>4042.663229514031</v>
       </c>
       <c r="S8">
-        <v>0.0584252057416438</v>
+        <v>0.1167585176698386</v>
       </c>
       <c r="T8">
-        <v>0.0584252057416438</v>
+        <v>0.1167585176698386</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>105.206055</v>
       </c>
       <c r="I9">
-        <v>0.5413819144108915</v>
+        <v>0.6801250913372558</v>
       </c>
       <c r="J9">
-        <v>0.5413819144108915</v>
+        <v>0.680125091337256</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N9">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O9">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P9">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q9">
-        <v>766.2765661125984</v>
+        <v>766.2765661125983</v>
       </c>
       <c r="R9">
-        <v>6896.489095013387</v>
+        <v>6896.489095013385</v>
       </c>
       <c r="S9">
-        <v>0.1357683205480525</v>
+        <v>0.1991815291418092</v>
       </c>
       <c r="T9">
-        <v>0.1357683205480525</v>
+        <v>0.1991815291418092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>105.206055</v>
       </c>
       <c r="I10">
-        <v>0.5413819144108915</v>
+        <v>0.6801250913372558</v>
       </c>
       <c r="J10">
-        <v>0.5413819144108915</v>
+        <v>0.680125091337256</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N10">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O10">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P10">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q10">
-        <v>517.2847995764535</v>
+        <v>380.385502334635</v>
       </c>
       <c r="R10">
-        <v>4655.563196188081</v>
+        <v>3423.469521011715</v>
       </c>
       <c r="S10">
-        <v>0.09165214178455135</v>
+        <v>0.09887522256194725</v>
       </c>
       <c r="T10">
-        <v>0.09165214178455135</v>
+        <v>0.09887522256194725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>105.206055</v>
       </c>
       <c r="I11">
-        <v>0.5413819144108915</v>
+        <v>0.6801250913372558</v>
       </c>
       <c r="J11">
-        <v>0.5413819144108915</v>
+        <v>0.680125091337256</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N11">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O11">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P11">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q11">
-        <v>523.2793470738601</v>
+        <v>259.14117000542</v>
       </c>
       <c r="R11">
-        <v>4709.514123664741</v>
+        <v>2332.27053004878</v>
       </c>
       <c r="S11">
-        <v>0.09271425131805473</v>
+        <v>0.06735966723754999</v>
       </c>
       <c r="T11">
-        <v>0.09271425131805473</v>
+        <v>0.06735966723754999</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>105.206055</v>
       </c>
       <c r="I12">
-        <v>0.5413819144108915</v>
+        <v>0.6801250913372558</v>
       </c>
       <c r="J12">
-        <v>0.5413819144108915</v>
+        <v>0.680125091337256</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N12">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O12">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P12">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q12">
-        <v>244.086218603605</v>
+        <v>252.1452011391533</v>
       </c>
       <c r="R12">
-        <v>2196.775967432445</v>
+        <v>2269.30681025238</v>
       </c>
       <c r="S12">
-        <v>0.04324701737501223</v>
+        <v>0.06554117527494087</v>
       </c>
       <c r="T12">
-        <v>0.04324701737501223</v>
+        <v>0.06554117527494087</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>105.206055</v>
       </c>
       <c r="I13">
-        <v>0.5413819144108915</v>
+        <v>0.6801250913372558</v>
       </c>
       <c r="J13">
-        <v>0.5413819144108915</v>
+        <v>0.680125091337256</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N13">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O13">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P13">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q13">
-        <v>674.8813190871067</v>
+        <v>509.3941116602201</v>
       </c>
       <c r="R13">
-        <v>6073.931871783961</v>
+        <v>4584.54700494198</v>
       </c>
       <c r="S13">
-        <v>0.1195749776435768</v>
+        <v>0.13240897945117</v>
       </c>
       <c r="T13">
-        <v>0.1195749776435768</v>
+        <v>0.13240897945117</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.299122</v>
+        <v>1.571962</v>
       </c>
       <c r="H14">
-        <v>15.897366</v>
+        <v>4.715886</v>
       </c>
       <c r="I14">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130266</v>
       </c>
       <c r="J14">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130267</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N14">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O14">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P14">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q14">
-        <v>49.827808438782</v>
+        <v>20.13481377281733</v>
       </c>
       <c r="R14">
-        <v>448.450275949038</v>
+        <v>181.213323955356</v>
       </c>
       <c r="S14">
-        <v>0.008828454591327589</v>
+        <v>0.005233727838763124</v>
       </c>
       <c r="T14">
-        <v>0.008828454591327589</v>
+        <v>0.005233727838763125</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.299122</v>
+        <v>1.571962</v>
       </c>
       <c r="H15">
-        <v>15.897366</v>
+        <v>4.715886</v>
       </c>
       <c r="I15">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130266</v>
       </c>
       <c r="J15">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130267</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N15">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O15">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P15">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q15">
-        <v>115.789714087418</v>
+        <v>34.34852614004467</v>
       </c>
       <c r="R15">
-        <v>1042.107426786762</v>
+        <v>309.136735260402</v>
       </c>
       <c r="S15">
-        <v>0.02051553670516123</v>
+        <v>0.008928358588661556</v>
       </c>
       <c r="T15">
-        <v>0.02051553670516123</v>
+        <v>0.008928358588661556</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.299122</v>
+        <v>1.571962</v>
       </c>
       <c r="H16">
-        <v>15.897366</v>
+        <v>4.715886</v>
       </c>
       <c r="I16">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130266</v>
       </c>
       <c r="J16">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130267</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N16">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O16">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P16">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q16">
-        <v>78.165327890144</v>
+        <v>17.050869030902</v>
       </c>
       <c r="R16">
-        <v>703.4879510112961</v>
+        <v>153.457821278118</v>
       </c>
       <c r="S16">
-        <v>0.01384927552537642</v>
+        <v>0.004432104956570904</v>
       </c>
       <c r="T16">
-        <v>0.01384927552537642</v>
+        <v>0.004432104956570904</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.299122</v>
+        <v>1.571962</v>
       </c>
       <c r="H17">
-        <v>15.897366</v>
+        <v>4.715886</v>
       </c>
       <c r="I17">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130266</v>
       </c>
       <c r="J17">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130267</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N17">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O17">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P17">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q17">
-        <v>79.07114567383199</v>
+        <v>11.616063501784</v>
       </c>
       <c r="R17">
-        <v>711.6403110644879</v>
+        <v>104.544571516056</v>
       </c>
       <c r="S17">
-        <v>0.01400976765661538</v>
+        <v>0.003019412824577641</v>
       </c>
       <c r="T17">
-        <v>0.01400976765661538</v>
+        <v>0.003019412824577641</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.299122</v>
+        <v>1.571962</v>
       </c>
       <c r="H18">
-        <v>15.897366</v>
+        <v>4.715886</v>
       </c>
       <c r="I18">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130266</v>
       </c>
       <c r="J18">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130267</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N18">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O18">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P18">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q18">
-        <v>36.883123815426</v>
+        <v>11.30246756253067</v>
       </c>
       <c r="R18">
-        <v>331.948114338834</v>
+        <v>101.722208062776</v>
       </c>
       <c r="S18">
-        <v>0.00653492485407735</v>
+        <v>0.002937898497407205</v>
       </c>
       <c r="T18">
-        <v>0.00653492485407735</v>
+        <v>0.002937898497407205</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.299122</v>
+        <v>1.571962</v>
       </c>
       <c r="H19">
-        <v>15.897366</v>
+        <v>4.715886</v>
       </c>
       <c r="I19">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130266</v>
       </c>
       <c r="J19">
-        <v>0.08180656939537002</v>
+        <v>0.03048676615130267</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N19">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O19">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P19">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q19">
-        <v>101.979257145328</v>
+        <v>22.833710090744</v>
       </c>
       <c r="R19">
-        <v>917.8133143079519</v>
+        <v>205.503390816696</v>
       </c>
       <c r="S19">
-        <v>0.01806861006281205</v>
+        <v>0.005935263445322232</v>
       </c>
       <c r="T19">
-        <v>0.01806861006281206</v>
+        <v>0.005935263445322232</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.974811333333333</v>
+        <v>2.548863333333333</v>
       </c>
       <c r="H20">
-        <v>29.924434</v>
+        <v>7.64659</v>
       </c>
       <c r="I20">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282269</v>
       </c>
       <c r="J20">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282271</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N20">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O20">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P20">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q20">
-        <v>93.79346018648467</v>
+        <v>32.64766486023778</v>
       </c>
       <c r="R20">
-        <v>844.1411416783619</v>
+        <v>293.82898374214</v>
       </c>
       <c r="S20">
-        <v>0.01661825655521672</v>
+        <v>0.008486246477248964</v>
       </c>
       <c r="T20">
-        <v>0.01661825655521672</v>
+        <v>0.008486246477248967</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.974811333333333</v>
+        <v>2.548863333333333</v>
       </c>
       <c r="H21">
-        <v>29.924434</v>
+        <v>7.64659</v>
       </c>
       <c r="I21">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282269</v>
       </c>
       <c r="J21">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282271</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N21">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O21">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P21">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q21">
-        <v>217.9569657695376</v>
+        <v>55.69453894712555</v>
       </c>
       <c r="R21">
-        <v>1961.612691925838</v>
+        <v>501.2508505241299</v>
       </c>
       <c r="S21">
-        <v>0.03861745550226211</v>
+        <v>0.01447691854732569</v>
       </c>
       <c r="T21">
-        <v>0.03861745550226211</v>
+        <v>0.01447691854732569</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.974811333333333</v>
+        <v>2.548863333333333</v>
       </c>
       <c r="H22">
-        <v>29.924434</v>
+        <v>7.64659</v>
       </c>
       <c r="I22">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282269</v>
       </c>
       <c r="J22">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282271</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N22">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O22">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P22">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q22">
-        <v>147.1346382499449</v>
+        <v>27.64719177329667</v>
       </c>
       <c r="R22">
-        <v>1324.211744249504</v>
+        <v>248.82472595967</v>
       </c>
       <c r="S22">
-        <v>0.02606920740246794</v>
+        <v>0.007186452225491775</v>
       </c>
       <c r="T22">
-        <v>0.02606920740246793</v>
+        <v>0.007186452225491776</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.974811333333333</v>
+        <v>2.548863333333333</v>
       </c>
       <c r="H23">
-        <v>29.924434</v>
+        <v>7.64659</v>
       </c>
       <c r="I23">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282269</v>
       </c>
       <c r="J23">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282271</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N23">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O23">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P23">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q23">
-        <v>148.839705899768</v>
+        <v>18.83490716529333</v>
       </c>
       <c r="R23">
-        <v>1339.557353097912</v>
+        <v>169.51416448764</v>
       </c>
       <c r="S23">
-        <v>0.02637131003939405</v>
+        <v>0.004895837581800566</v>
       </c>
       <c r="T23">
-        <v>0.02637131003939404</v>
+        <v>0.004895837581800567</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.974811333333333</v>
+        <v>2.548863333333333</v>
       </c>
       <c r="H24">
-        <v>29.924434</v>
+        <v>7.64659</v>
       </c>
       <c r="I24">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282269</v>
       </c>
       <c r="J24">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282271</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N24">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O24">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P24">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q24">
-        <v>69.42701101104066</v>
+        <v>18.32642592271555</v>
       </c>
       <c r="R24">
-        <v>624.843099099366</v>
+        <v>164.93783330444</v>
       </c>
       <c r="S24">
-        <v>0.01230102694312991</v>
+        <v>0.004763665888295213</v>
       </c>
       <c r="T24">
-        <v>0.0123010269431299</v>
+        <v>0.004763665888295213</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.974811333333333</v>
+        <v>2.548863333333333</v>
       </c>
       <c r="H25">
-        <v>29.924434</v>
+        <v>7.64659</v>
       </c>
       <c r="I25">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282269</v>
       </c>
       <c r="J25">
-        <v>0.1539887354067441</v>
+        <v>0.04943287458282271</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N25">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O25">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P25">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q25">
-        <v>191.9608285935164</v>
+        <v>37.02379982102666</v>
       </c>
       <c r="R25">
-        <v>1727.647457341648</v>
+        <v>333.21419838924</v>
       </c>
       <c r="S25">
-        <v>0.0340114789642734</v>
+        <v>0.009623753862660489</v>
       </c>
       <c r="T25">
-        <v>0.0340114789642734</v>
+        <v>0.009623753862660489</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.636677333333333</v>
+        <v>1.803093333333334</v>
       </c>
       <c r="H26">
-        <v>4.910031999999999</v>
+        <v>5.409280000000001</v>
       </c>
       <c r="I26">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764368</v>
       </c>
       <c r="J26">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764369</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N26">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O26">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P26">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q26">
-        <v>15.38972770233067</v>
+        <v>23.09530922609778</v>
       </c>
       <c r="R26">
-        <v>138.507549320976</v>
+        <v>207.85778303488</v>
       </c>
       <c r="S26">
-        <v>0.002726740678547967</v>
+        <v>0.006003262021954007</v>
       </c>
       <c r="T26">
-        <v>0.002726740678547967</v>
+        <v>0.006003262021954008</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.636677333333333</v>
+        <v>1.803093333333334</v>
       </c>
       <c r="H27">
-        <v>4.910031999999999</v>
+        <v>5.409280000000001</v>
       </c>
       <c r="I27">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764368</v>
       </c>
       <c r="J27">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764369</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N27">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O27">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P27">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q27">
-        <v>35.76260378229156</v>
+        <v>39.39891580899556</v>
       </c>
       <c r="R27">
-        <v>321.863434040624</v>
+        <v>354.59024228096</v>
       </c>
       <c r="S27">
-        <v>0.006336391935589592</v>
+        <v>0.01024112787002807</v>
       </c>
       <c r="T27">
-        <v>0.006336391935589593</v>
+        <v>0.01024112787002807</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.636677333333333</v>
+        <v>1.803093333333334</v>
       </c>
       <c r="H28">
-        <v>4.910031999999999</v>
+        <v>5.409280000000001</v>
       </c>
       <c r="I28">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764368</v>
       </c>
       <c r="J28">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764369</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N28">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O28">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P28">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q28">
-        <v>24.14200322437689</v>
+        <v>19.55792078762667</v>
       </c>
       <c r="R28">
-        <v>217.278029019392</v>
+        <v>176.02128708864</v>
       </c>
       <c r="S28">
-        <v>0.004277462442923881</v>
+        <v>0.005083773589836536</v>
       </c>
       <c r="T28">
-        <v>0.004277462442923881</v>
+        <v>0.005083773589836536</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.636677333333333</v>
+        <v>1.803093333333334</v>
       </c>
       <c r="H29">
-        <v>4.910031999999999</v>
+        <v>5.409280000000001</v>
       </c>
       <c r="I29">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764368</v>
       </c>
       <c r="J29">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764369</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N29">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O29">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P29">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q29">
-        <v>24.421772483264</v>
+        <v>13.32401588565333</v>
       </c>
       <c r="R29">
-        <v>219.795952349376</v>
+        <v>119.91614297088</v>
       </c>
       <c r="S29">
-        <v>0.004327031755232062</v>
+        <v>0.003463368156849285</v>
       </c>
       <c r="T29">
-        <v>0.004327031755232062</v>
+        <v>0.003463368156849285</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.636677333333333</v>
+        <v>1.803093333333334</v>
       </c>
       <c r="H30">
-        <v>4.910031999999999</v>
+        <v>5.409280000000001</v>
       </c>
       <c r="I30">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764368</v>
       </c>
       <c r="J30">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764369</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N30">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O30">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P30">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q30">
-        <v>11.39165558581866</v>
+        <v>12.96431078627556</v>
       </c>
       <c r="R30">
-        <v>102.524900272368</v>
+        <v>116.67879707648</v>
       </c>
       <c r="S30">
-        <v>0.002018365190253223</v>
+        <v>0.003369868479444763</v>
       </c>
       <c r="T30">
-        <v>0.002018365190253223</v>
+        <v>0.003369868479444764</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.636677333333333</v>
+        <v>1.803093333333334</v>
       </c>
       <c r="H31">
-        <v>4.910031999999999</v>
+        <v>5.409280000000001</v>
       </c>
       <c r="I31">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764368</v>
       </c>
       <c r="J31">
-        <v>0.02526663055637566</v>
+        <v>0.03496934709764369</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N31">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O31">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P31">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q31">
-        <v>31.49713077750044</v>
+        <v>26.19103415978667</v>
       </c>
       <c r="R31">
-        <v>283.4741769975039</v>
+        <v>235.71930743808</v>
       </c>
       <c r="S31">
-        <v>0.005580638553828929</v>
+        <v>0.006807946979531025</v>
       </c>
       <c r="T31">
-        <v>0.00558063855382893</v>
+        <v>0.006807946979531024</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.400023333333333</v>
+        <v>4.846088000000001</v>
       </c>
       <c r="H32">
-        <v>16.20007</v>
+        <v>14.538264</v>
       </c>
       <c r="I32">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386063</v>
       </c>
       <c r="J32">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386064</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>9.403031</v>
+        <v>12.80871533333333</v>
       </c>
       <c r="N32">
-        <v>28.209093</v>
+        <v>38.426146</v>
       </c>
       <c r="O32">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="P32">
-        <v>0.1079186507462474</v>
+        <v>0.1716721220213608</v>
       </c>
       <c r="Q32">
-        <v>50.77658680405667</v>
+        <v>62.07216167228268</v>
       </c>
       <c r="R32">
-        <v>456.98928123651</v>
+        <v>558.6494550505441</v>
       </c>
       <c r="S32">
-        <v>0.008996558446935697</v>
+        <v>0.01613468116576349</v>
       </c>
       <c r="T32">
-        <v>0.008996558446935697</v>
+        <v>0.01613468116576349</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.400023333333333</v>
+        <v>4.846088000000001</v>
       </c>
       <c r="H33">
-        <v>16.20007</v>
+        <v>14.538264</v>
       </c>
       <c r="I33">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386063</v>
       </c>
       <c r="J33">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386064</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>21.85073566666667</v>
       </c>
       <c r="N33">
-        <v>65.55220700000001</v>
+        <v>65.552207</v>
       </c>
       <c r="O33">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="P33">
-        <v>0.2507810418746436</v>
+        <v>0.2928601395225403</v>
       </c>
       <c r="Q33">
-        <v>117.9944824504989</v>
+        <v>105.8905879054053</v>
       </c>
       <c r="R33">
-        <v>1061.95034205449</v>
+        <v>953.0152911486481</v>
       </c>
       <c r="S33">
-        <v>0.02090617594834146</v>
+        <v>0.02752459118999677</v>
       </c>
       <c r="T33">
-        <v>0.02090617594834146</v>
+        <v>0.02752459118999677</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.400023333333333</v>
+        <v>4.846088000000001</v>
       </c>
       <c r="H34">
-        <v>16.20007</v>
+        <v>14.538264</v>
       </c>
       <c r="I34">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386063</v>
       </c>
       <c r="J34">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386064</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>14.75061866666667</v>
+        <v>10.846871</v>
       </c>
       <c r="N34">
-        <v>44.251856</v>
+        <v>32.540613</v>
       </c>
       <c r="O34">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="P34">
-        <v>0.1692929507707757</v>
+        <v>0.1453779956383313</v>
       </c>
       <c r="Q34">
-        <v>79.65368498110223</v>
+        <v>52.56489139064801</v>
       </c>
       <c r="R34">
-        <v>716.88316482992</v>
+        <v>473.084022515832</v>
       </c>
       <c r="S34">
-        <v>0.01411298154426242</v>
+        <v>0.01366341593803081</v>
       </c>
       <c r="T34">
-        <v>0.01411298154426242</v>
+        <v>0.0136634159380308</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.400023333333333</v>
+        <v>4.846088000000001</v>
       </c>
       <c r="H35">
-        <v>16.20007</v>
+        <v>14.538264</v>
       </c>
       <c r="I35">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386063</v>
       </c>
       <c r="J35">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386064</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>14.921556</v>
+        <v>7.389532</v>
       </c>
       <c r="N35">
-        <v>44.764668</v>
+        <v>22.168596</v>
       </c>
       <c r="O35">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636306</v>
       </c>
       <c r="P35">
-        <v>0.171254799708155</v>
+        <v>0.09904011496636304</v>
       </c>
       <c r="Q35">
-        <v>80.57675056964</v>
+        <v>35.81032235081601</v>
       </c>
       <c r="R35">
-        <v>725.19075512676</v>
+        <v>322.292901157344</v>
       </c>
       <c r="S35">
-        <v>0.01427652962892753</v>
+        <v>0.009308329499206605</v>
       </c>
       <c r="T35">
-        <v>0.01427652962892753</v>
+        <v>0.009308329499206605</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.400023333333333</v>
+        <v>4.846088000000001</v>
       </c>
       <c r="H36">
-        <v>16.20007</v>
+        <v>14.538264</v>
       </c>
       <c r="I36">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386063</v>
       </c>
       <c r="J36">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386064</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.960233</v>
+        <v>7.190038666666666</v>
       </c>
       <c r="N36">
-        <v>20.880699</v>
+        <v>21.570116</v>
       </c>
       <c r="O36">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950015</v>
       </c>
       <c r="P36">
-        <v>0.07988264148437943</v>
+        <v>0.09636635393950013</v>
       </c>
       <c r="Q36">
-        <v>37.58542060543667</v>
+        <v>34.84356010206934</v>
       </c>
       <c r="R36">
-        <v>338.26878544893</v>
+        <v>313.592040918624</v>
       </c>
       <c r="S36">
-        <v>0.006659357284772387</v>
+        <v>0.009057034873300429</v>
       </c>
       <c r="T36">
-        <v>0.006659357284772387</v>
+        <v>0.009057034873300429</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.400023333333333</v>
+        <v>4.846088000000001</v>
       </c>
       <c r="H37">
-        <v>16.20007</v>
+        <v>14.538264</v>
       </c>
       <c r="I37">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386063</v>
       </c>
       <c r="J37">
-        <v>0.08336425988209947</v>
+        <v>0.09398544723386064</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.24455733333333</v>
+        <v>14.525612</v>
       </c>
       <c r="N37">
-        <v>57.733672</v>
+        <v>43.576836</v>
       </c>
       <c r="O37">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="P37">
-        <v>0.2208699154157988</v>
+        <v>0.1946832739119044</v>
       </c>
       <c r="Q37">
-        <v>103.9210586396711</v>
+        <v>70.39239400585602</v>
       </c>
       <c r="R37">
-        <v>935.28952775704</v>
+        <v>633.5315460527041</v>
       </c>
       <c r="S37">
-        <v>0.01841265702885998</v>
+        <v>0.01829739456756253</v>
       </c>
       <c r="T37">
-        <v>0.01841265702885998</v>
+        <v>0.01829739456756253</v>
       </c>
     </row>
   </sheetData>
